--- a/Mifos Automation Excels/Client/4768-SUBMITRD01JAN2015(AMT5000-PRD06MNTHwithINCT-2)-APRACT01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4768-SUBMITRD01JAN2015(AMT5000-PRD06MNTHwithINCT-2)-APRACT01JAN2015.xlsx
@@ -179,7 +179,7 @@
     <t>$ 5,062.8</t>
   </si>
   <si>
-    <t>4769-SUBMITRD01JAN2015(AMT5000-PRD06MNTHwithINCT-3)-APRACT01JAN2015</t>
+    <t>4768-SUBMITRD01JAN2015(AMT5000-PRD06MNTHwithINCT-2)-APRACT01JAN2015</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
